--- a/olcsaprojektdoku.xlsx
+++ b/olcsaprojektdoku.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11c-benedek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FACF0F20-5062-4CCA-9F8A-FDFD5D945A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A30B32-534A-455F-84DB-A9F0ECACBAEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{81255A5E-65B9-4503-A396-477F3856A60A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{81255A5E-65B9-4503-A396-477F3856A60A}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Név</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Ötletelés, kód elkezdése, a github megcsinálása</t>
+  </si>
+  <si>
+    <t>Kód befejezése, a dokumentációban képekért felelős</t>
+  </si>
+  <si>
+    <t>Kód befejezése, dokumentáció szövegének elkészítése</t>
   </si>
 </sst>
 </file>
@@ -404,13 +410,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BC18EB-8C83-4E6E-82C7-052944C164C8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -454,8 +464,38 @@
       </c>
       <c r="F3" s="1"/>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45611</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45611</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
